--- a/Ruby/loadexcel/HLSDData.xlsx
+++ b/Ruby/loadexcel/HLSDData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="638"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="638" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -184,7 +184,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">仅可以使用数字, 数字范围0-100000000 </t>
+    <t>仅可以使用数字, 数字范围0-100000000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,7 +513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -624,7 +624,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E6"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -688,7 +688,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E6"/>
+      <selection activeCell="D2" sqref="D2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -751,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -892,7 +892,71 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E6"/>
+      <selection activeCell="D2" sqref="D2:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -951,76 +1015,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E5"/>
+      <selection activeCell="D2" sqref="D2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Ruby/loadexcel/HLSDData.xlsx
+++ b/Ruby/loadexcel/HLSDData.xlsx
@@ -20,7 +20,6 @@
     <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="43">
   <si>
     <t>账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,6 +185,18 @@
   <si>
     <t>仅可以使用数字, 数字范围0-100000000</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅可以使用中英文字母,数字, 下划线和减号, 字数范围2-50</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>仅可以使用数字, 数字范围0-100000000</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -655,6 +666,12 @@
       <c r="C2" t="s">
         <v>38</v>
       </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -663,6 +680,12 @@
       <c r="C3" t="s">
         <v>38</v>
       </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -671,10 +694,22 @@
       <c r="C4" t="s">
         <v>38</v>
       </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>200</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -719,6 +754,12 @@
       <c r="C2" t="s">
         <v>38</v>
       </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -727,6 +768,12 @@
       <c r="C3" t="s">
         <v>38</v>
       </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -735,10 +782,22 @@
       <c r="C4" t="s">
         <v>38</v>
       </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>200</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -751,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -783,6 +842,12 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -791,6 +856,12 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -799,20 +870,35 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -858,6 +944,12 @@
       <c r="C2" t="s">
         <v>38</v>
       </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -866,6 +958,12 @@
       <c r="C3" t="s">
         <v>38</v>
       </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -874,10 +972,22 @@
       <c r="C4" t="s">
         <v>38</v>
       </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>200</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -923,6 +1033,12 @@
       <c r="C2" t="s">
         <v>38</v>
       </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -931,6 +1047,12 @@
       <c r="C3" t="s">
         <v>38</v>
       </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -939,10 +1061,22 @@
       <c r="C4" t="s">
         <v>38</v>
       </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>200</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -987,6 +1121,12 @@
       <c r="C2" t="s">
         <v>38</v>
       </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -995,6 +1135,12 @@
       <c r="C3" t="s">
         <v>38</v>
       </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1003,10 +1149,22 @@
       <c r="C4" t="s">
         <v>38</v>
       </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>200</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1051,6 +1209,12 @@
       <c r="C2" t="s">
         <v>38</v>
       </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1059,6 +1223,12 @@
       <c r="C3" t="s">
         <v>38</v>
       </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1067,10 +1237,22 @@
       <c r="C4" t="s">
         <v>38</v>
       </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>200</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1115,6 +1297,12 @@
       <c r="C2" t="s">
         <v>38</v>
       </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1123,6 +1311,12 @@
       <c r="C3" t="s">
         <v>38</v>
       </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1131,10 +1325,22 @@
       <c r="C4" t="s">
         <v>38</v>
       </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>200</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1179,6 +1385,12 @@
       <c r="C2" t="s">
         <v>38</v>
       </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1187,6 +1399,12 @@
       <c r="C3" t="s">
         <v>38</v>
       </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1195,10 +1413,22 @@
       <c r="C4" t="s">
         <v>38</v>
       </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>200</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1243,6 +1473,12 @@
       <c r="C2" t="s">
         <v>38</v>
       </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1251,6 +1487,12 @@
       <c r="C3" t="s">
         <v>38</v>
       </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1259,10 +1501,22 @@
       <c r="C4" t="s">
         <v>38</v>
       </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>200</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
